--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/corgon.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/corgon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE9FD51-5F7B-4493-B77D-11992F762158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB5817B-4B8A-43DE-BBE1-8BC0398D2EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
@@ -771,7 +771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="27.75">
+    <row r="26" spans="1:12">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
